--- a/source_plates/221101_arpae_buffers.xlsx
+++ b/source_plates/221101_arpae_buffers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4263D982-DB7B-49C2-88A0-B1CDED3EF6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF36963-CEA8-4940-996E-6DB87EB24CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>Item</t>
   </si>
@@ -140,18 +140,6 @@
     <t>Serine</t>
   </si>
   <si>
-    <t>31.2,60.0</t>
-  </si>
-  <si>
-    <t>48.0,60.0</t>
-  </si>
-  <si>
-    <t>36.0,55.0</t>
-  </si>
-  <si>
-    <t>36.0,61.0</t>
-  </si>
-  <si>
     <t>18.1,52.0,53.0</t>
   </si>
   <si>
@@ -167,12 +155,6 @@
     <t>G1,G2</t>
   </si>
   <si>
-    <t>40.8,60</t>
-  </si>
-  <si>
-    <t>24.0,60.0,60</t>
-  </si>
-  <si>
     <t>I1,I2,I3</t>
   </si>
   <si>
@@ -180,6 +162,12 @@
   </si>
   <si>
     <t>60.0,60.0,60.0,60.0,60,60</t>
+  </si>
+  <si>
+    <t>60,60.0</t>
+  </si>
+  <si>
+    <t>60,60,60</t>
   </si>
 </sst>
 </file>
@@ -273,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -285,7 +273,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -592,7 +581,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,8 +619,8 @@
       <c r="D2">
         <v>40.950000000000003</v>
       </c>
-      <c r="E2" t="s">
-        <v>35</v>
+      <c r="E2" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -647,8 +636,8 @@
       <c r="D3">
         <v>50</v>
       </c>
-      <c r="E3" t="s">
-        <v>36</v>
+      <c r="E3" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -664,8 +653,8 @@
       <c r="D4">
         <v>100</v>
       </c>
-      <c r="E4">
-        <v>48</v>
+      <c r="E4" s="5">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -681,8 +670,8 @@
       <c r="D5">
         <v>100</v>
       </c>
-      <c r="E5" t="s">
-        <v>37</v>
+      <c r="E5" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -693,13 +682,13 @@
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>48</v>
+      <c r="E6" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -709,14 +698,14 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D7">
         <v>250</v>
       </c>
-      <c r="E7">
-        <v>55.2</v>
+      <c r="E7" s="5">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -727,13 +716,13 @@
         <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>932.95676000000003</v>
       </c>
-      <c r="E8" t="s">
-        <v>44</v>
+      <c r="E8" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -743,13 +732,13 @@
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D9">
         <v>250</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -761,13 +750,13 @@
         <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>1000</v>
       </c>
-      <c r="E10" t="s">
-        <v>45</v>
+      <c r="E10" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -777,14 +766,14 @@
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D11">
         <v>50</v>
       </c>
-      <c r="E11" t="s">
-        <v>38</v>
+      <c r="E11" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -794,14 +783,14 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D12">
         <v>25</v>
       </c>
-      <c r="E12" t="s">
-        <v>39</v>
+      <c r="E12" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -811,13 +800,13 @@
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D13">
         <v>25</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>61.225000000000001</v>
       </c>
     </row>
@@ -828,13 +817,13 @@
       <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D14">
         <v>100</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>54</v>
       </c>
     </row>
@@ -845,13 +834,13 @@
       <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="3">
         <v>50</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="6">
         <v>60</v>
       </c>
     </row>
@@ -862,13 +851,13 @@
       <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="3">
         <v>50</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="6">
         <v>60</v>
       </c>
     </row>
@@ -880,29 +869,29 @@
         <v>34</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D17" s="3">
         <v>25</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D18">
         <v>250</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="6" t="s">
         <v>29</v>
       </c>
     </row>
